--- a/statistics/R/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.041948198198198172</v>
+        <v>-0.020974099099099086</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.10084976751643421</v>
+        <v>-0.050424883758217104</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.015137596257140895</v>
+        <v>-0.0075687981285704475</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.080876795162509507</v>
+        <v>0.040438397581254754</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.04775368480725628</v>
+        <v>-0.02387684240362814</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.057476206857011825</v>
+        <v>0.028738103428505912</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.03180654978040609</v>
+        <v>0.015903274890203045</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.048328220176959646</v>
+        <v>-0.024164110088479823</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.094473344893512945</v>
+        <v>0.047236672446756472</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.079287270463741122</v>
+        <v>-0.039643635231870561</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.036959228135698741</v>
+        <v>0.01847961406784937</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.085063850101444072</v>
+        <v>0.042531925050722036</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.050521109344638715</v>
+        <v>-0.025260554672319357</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.021971595655806142</v>
+        <v>0.010985797827903071</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.040744667937650469</v>
+        <v>-0.020372333968825235</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.025799303577081267</v>
+        <v>0.012899651788540634</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.097168074507255953</v>
+        <v>0.048584037253627976</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.073758740425407199</v>
+        <v>0.036879370212703599</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.016708545279973785</v>
+        <v>-0.0083542726399868927</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.024243760354871413</v>
+        <v>-0.012121880177435707</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>0.027806444215112969</v>
+        <v>0.013903222107556484</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.013053818609374213</v>
+        <v>0.0065269093046871063</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.13513947245564889</v>
+        <v>-0.067569736227824445</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.043556479830989758</v>
+        <v>0.021778239915494879</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.013674847008180446</v>
+        <v>-0.0068374235040902231</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.01855407634977535</v>
+        <v>-0.0092770381748876751</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.053342953342953359</v>
+        <v>-0.026671476671476679</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.018990559186637279</v>
+        <v>0.0094952795933186396</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.095609895609895634</v>
+        <v>0.047804947804947817</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.042198944976722608</v>
+        <v>-0.021099472488361304</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.04723316227075619</v>
+        <v>0.023616581135378095</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.00041498080713769925</v>
+        <v>-0.00020749040356884962</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.027733361066694384</v>
+        <v>-0.013866680533347192</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.072486772486772488</v>
+        <v>0.036243386243386244</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.089477040816326514</v>
+        <v>0.044738520408163257</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.056848912404467988</v>
+        <v>0.028424456202233994</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.11108377284847881</v>
+        <v>0.055541886424239406</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.0045561434450325233</v>
+        <v>-0.0022780717225162617</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.049034181573864188</v>
+        <v>0.024517090786932094</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.059710351377017967</v>
+        <v>-0.029855175688508984</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.030595902024473376</v>
+        <v>0.015297951012236688</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.066440696649029907</v>
+        <v>0.033220348324514953</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.030370670995670868</v>
+        <v>-0.015185335497835434</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.081359568917172609</v>
+        <v>0.040679784458586304</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.050446104367672884</v>
+        <v>-0.025223052183836442</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.013922482573276329</v>
+        <v>0.0069612412866381645</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.074316932160069404</v>
+        <v>0.037158466080034702</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.0048075435502336061</v>
+        <v>-0.0024037717751168031</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.040307234004712977</v>
+        <v>-0.020153617002356489</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.14090782511835143</v>
+        <v>-0.070453912559175713</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.047706890564033433</v>
+        <v>-0.023853445282016716</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.058309990662931799</v>
+        <v>0.029154995331465899</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.034073756295978586</v>
+        <v>-0.017036878147989293</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.0057445200302343458</v>
+        <v>-0.0028722600151171729</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.069661511328178161</v>
+        <v>0.03483075566408908</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.089529379003063292</v>
+        <v>0.044764689501531646</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0043615043615043425</v>
+        <v>-0.0021807521807521713</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.041137566137566028</v>
+        <v>0.020568783068783014</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.015013227513227589</v>
+        <v>0.0075066137566137947</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.062146701035590002</v>
+        <v>0.031073350517795001</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.032401159594142082</v>
+        <v>-0.016200579797071041</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.0035716395365518738</v>
+        <v>-0.0017858197682759369</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.062509448223733888</v>
+        <v>-0.031254724111866944</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.16985519353940409</v>
+        <v>0.084927596769702046</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.02691282077246987</v>
+        <v>0.013456410386234935</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.051282051282051211</v>
+        <v>0.025641025641025605</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.079534662867996375</v>
+        <v>-0.039767331433998188</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.029870942370942399</v>
+        <v>-0.0149354711854712</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.06257658033973823</v>
+        <v>-0.031288290169869115</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.027447089947089998</v>
+        <v>0.013723544973544999</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.037087912087912012</v>
+        <v>0.018543956043956006</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.021692407657319945</v>
+        <v>0.010846203828659973</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0076530612244897767</v>
+        <v>0.0038265306122448883</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.039021164021163957</v>
+        <v>-0.019510582010581978</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.049324835039120773</v>
+        <v>-0.024662417519560387</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.094239197180373768</v>
+        <v>0.047119598590186884</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0035035035035034245</v>
+        <v>-0.0017517517517517123</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.027951472395916832</v>
+        <v>-0.013975736197958416</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.0050721717388383381</v>
+        <v>0.002536085869419169</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.042270445048222804</v>
+        <v>-0.021135222524111402</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.030262163344870141</v>
+        <v>0.015131081672435071</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.050546787388892622</v>
+        <v>-0.025273393694446311</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>-0.049234171783191449</v>
+        <v>-0.024617085891595725</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.043655638893734139</v>
+        <v>0.021827819446867069</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.037922843478399026</v>
+        <v>-0.018961421739199513</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.063192703982177634</v>
+        <v>-0.031596351991088817</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>0.057585057585057609</v>
+        <v>0.028792528792528804</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.055555555555555691</v>
+        <v>-0.027777777777777846</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.024455191121857844</v>
+        <v>0.012227595560928922</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.089778503994190351</v>
+        <v>-0.044889251997095175</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.19495884773662542</v>
+        <v>0.097479423868312709</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.025925925925925908</v>
+        <v>-0.012962962962962954</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.091162591162591122</v>
+        <v>-0.045581295581295561</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.040619373952707372</v>
+        <v>-0.020309686976353686</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.014943514943515035</v>
+        <v>0.0074717574717575175</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.02084624306846522</v>
+        <v>0.01042312153423261</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.14479485751415583</v>
+        <v>-0.072397428757077914</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0046584715757647666</v>
+        <v>-0.0023292357878823833</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.016996922225680444</v>
+        <v>0.0084984611128402221</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.15911079146373258</v>
+        <v>0.079555395731866291</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.049248341311833421</v>
+        <v>0.024624170655916711</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.015862517846644775</v>
+        <v>-0.0079312589233223874</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.078571428571428736</v>
+        <v>0.039285714285714368</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.0088338129273803356</v>
+        <v>-0.0044169064636901678</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.029605001827224142</v>
+        <v>0.014802500913612071</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.024227234753550542</v>
+        <v>-0.012113617376775271</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.03658810325476991</v>
+        <v>0.018294051627384955</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>0.083119986345792651</v>
+        <v>0.041559993172896326</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.016074577979340032</v>
+        <v>0.0080372889896700161</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.023256339045812646</v>
+        <v>0.011628169522906323</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.026878985212318518</v>
+        <v>0.013439492606159259</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.015880996273153092</v>
+        <v>-0.0079404981365765459</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.036833536833536795</v>
+        <v>-0.018416768416768398</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0066804499577609588</v>
+        <v>-0.0033402249788804794</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.062942062942063004</v>
+        <v>0.031471031471031502</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.043852508764789411</v>
+        <v>-0.021926254382394705</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.22242572242572245</v>
+        <v>0.11121286121286122</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.12970817356782266</v>
+        <v>0.06485408678391133</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.043142578668894538</v>
+        <v>0.021571289334447269</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.015596182262848812</v>
+        <v>0.0077980911314244061</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.14551526316232188</v>
+        <v>0.072757631581160942</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.088973398001175763</v>
+        <v>-0.044486699000587882</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.0076584295334295449</v>
+        <v>-0.0038292147667147725</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.013669795403541574</v>
+        <v>-0.0068348977017707868</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>-0.001511715797430091</v>
+        <v>-0.0007558578987150455</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.015380459824904436</v>
+        <v>-0.0076902299124522178</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0053883248327691868</v>
+        <v>-0.0026941624163845934</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.057408428837000369</v>
+        <v>-0.028704214418500185</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.0083673899463372892</v>
+        <v>0.0041836949731686446</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.0040315040315039297</v>
+        <v>0.0020157520157519648</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.054763410026567871</v>
+        <v>0.027381705013283936</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.13159430438842212</v>
+        <v>0.065797152194211062</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.02316602316602312</v>
+        <v>0.01158301158301156</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>0.053907917943005645</v>
+        <v>0.026953958971502823</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.041581874915208372</v>
+        <v>0.020790937457604186</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.027499303815093357</v>
+        <v>0.013749651907546678</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.053806167841255637</v>
+        <v>0.026903083920627818</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.065862662353890322</v>
+        <v>0.032931331176945161</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.077365542882784188</v>
+        <v>-0.038682771441392094</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>-0.10374660374660383</v>
+        <v>-0.051873301873301914</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.017606350939684323</v>
+        <v>0.0088031754698421616</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.046761046761046698</v>
+        <v>0.023380523380523349</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.050049245287340338</v>
+        <v>0.025024622643670169</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.046837015587015474</v>
+        <v>-0.023418507793507737</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.055052755345153026</v>
+        <v>0.027526377672576513</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.044105329819615624</v>
+        <v>0.022052664909807812</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0024097180959926634</v>
+        <v>0.0012048590479963317</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.096331727135298584</v>
+        <v>0.048165863567649292</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.026805499027721225</v>
+        <v>0.013402749513860612</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.00064408479441152577</v>
+        <v>-0.00032204239720576289</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.022404658369570729</v>
+        <v>0.011202329184785365</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.03518054395247372</v>
+        <v>-0.01759027197623686</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.011417539988968495</v>
+        <v>0.0057087699944842474</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.048906048906048827</v>
+        <v>0.024453024453024413</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.001085334418667705</v>
+        <v>0.00054266720933385248</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.097526097526097644</v>
+        <v>0.048763048763048822</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.075386327370454365</v>
+        <v>0.037693163685227182</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.041285525156492975</v>
+        <v>-0.020642762578246487</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.073462351240129009</v>
+        <v>0.036731175620064505</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.08317271352985639</v>
+        <v>0.041586356764928195</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.010901421500499886</v>
+        <v>0.005450710750249943</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.02536570183629</v>
+        <v>-0.012682850918145</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.062030075187969991</v>
+        <v>0.031015037593984995</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.015594348927682078</v>
+        <v>0.007797174463841039</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.03909465020576125</v>
+        <v>-0.019547325102880625</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.021553065670712801</v>
+        <v>0.0107765328353564</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.089802046944904013</v>
+        <v>0.044901023472452006</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.034534534534534533</v>
+        <v>0.017267267267267267</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.021564421564421399</v>
+        <v>0.010782210782210699</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.061112898612898592</v>
+        <v>-0.030556449306449296</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.040224748558081946</v>
+        <v>-0.020112374279040973</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.015687115687115616</v>
+        <v>0.0078435578435578079</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.079034391534391624</v>
+        <v>0.039517195767195812</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.028579331210910219</v>
+        <v>0.01428966560545511</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.020974099099099086</v>
+        <v>-0.041948198198198172</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.050424883758217104</v>
+        <v>-0.10084976751643421</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0075687981285704475</v>
+        <v>-0.015137596257140895</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.040438397581254754</v>
+        <v>0.080876795162509507</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.02387684240362814</v>
+        <v>-0.04775368480725628</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.028738103428505912</v>
+        <v>0.057476206857011825</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.015903274890203045</v>
+        <v>0.03180654978040609</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.024164110088479823</v>
+        <v>-0.048328220176959646</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.047236672446756472</v>
+        <v>0.094473344893512945</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.039643635231870561</v>
+        <v>-0.079287270463741122</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.01847961406784937</v>
+        <v>0.036959228135698741</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.042531925050722036</v>
+        <v>0.085063850101444072</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.025260554672319357</v>
+        <v>-0.050521109344638715</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.010985797827903071</v>
+        <v>0.021971595655806142</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.020372333968825235</v>
+        <v>-0.040744667937650469</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.012899651788540634</v>
+        <v>0.025799303577081267</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.048584037253627976</v>
+        <v>0.097168074507255953</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.036879370212703599</v>
+        <v>0.073758740425407199</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0083542726399868927</v>
+        <v>-0.016708545279973785</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.012121880177435707</v>
+        <v>-0.024243760354871413</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>0.013903222107556484</v>
+        <v>0.027806444215112969</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0065269093046871063</v>
+        <v>0.013053818609374213</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.067569736227824445</v>
+        <v>-0.13513947245564889</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.021778239915494879</v>
+        <v>0.043556479830989758</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0068374235040902231</v>
+        <v>-0.013674847008180446</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0092770381748876751</v>
+        <v>-0.01855407634977535</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.026671476671476679</v>
+        <v>-0.053342953342953359</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0094952795933186396</v>
+        <v>0.018990559186637279</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.047804947804947817</v>
+        <v>0.095609895609895634</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.021099472488361304</v>
+        <v>-0.042198944976722608</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.023616581135378095</v>
+        <v>0.04723316227075619</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.00020749040356884962</v>
+        <v>-0.00041498080713769925</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.013866680533347192</v>
+        <v>-0.027733361066694384</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.036243386243386244</v>
+        <v>0.072486772486772488</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.044738520408163257</v>
+        <v>0.089477040816326514</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.028424456202233994</v>
+        <v>0.056848912404467988</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.055541886424239406</v>
+        <v>0.11108377284847881</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.0022780717225162617</v>
+        <v>-0.0045561434450325233</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.024517090786932094</v>
+        <v>0.049034181573864188</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.029855175688508984</v>
+        <v>-0.059710351377017967</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.015297951012236688</v>
+        <v>0.030595902024473376</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.033220348324514953</v>
+        <v>0.066440696649029907</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.015185335497835434</v>
+        <v>-0.030370670995670868</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.040679784458586304</v>
+        <v>0.081359568917172609</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.025223052183836442</v>
+        <v>-0.050446104367672884</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.0069612412866381645</v>
+        <v>0.013922482573276329</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.037158466080034702</v>
+        <v>0.074316932160069404</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.0024037717751168031</v>
+        <v>-0.0048075435502336061</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.020153617002356489</v>
+        <v>-0.040307234004712977</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.070453912559175713</v>
+        <v>-0.14090782511835143</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.023853445282016716</v>
+        <v>-0.047706890564033433</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.029154995331465899</v>
+        <v>0.058309990662931799</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.017036878147989293</v>
+        <v>-0.034073756295978586</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.0028722600151171729</v>
+        <v>-0.0057445200302343458</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.03483075566408908</v>
+        <v>0.069661511328178161</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.044764689501531646</v>
+        <v>0.089529379003063292</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0021807521807521713</v>
+        <v>-0.0043615043615043425</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.020568783068783014</v>
+        <v>0.041137566137566028</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.0075066137566137947</v>
+        <v>0.015013227513227589</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.031073350517795001</v>
+        <v>0.062146701035590002</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.016200579797071041</v>
+        <v>-0.032401159594142082</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.0017858197682759369</v>
+        <v>-0.0035716395365518738</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.031254724111866944</v>
+        <v>-0.062509448223733888</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.084927596769702046</v>
+        <v>0.16985519353940409</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.013456410386234935</v>
+        <v>0.02691282077246987</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.025641025641025605</v>
+        <v>0.051282051282051211</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.039767331433998188</v>
+        <v>-0.079534662867996375</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.0149354711854712</v>
+        <v>-0.029870942370942399</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.031288290169869115</v>
+        <v>-0.06257658033973823</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.013723544973544999</v>
+        <v>0.027447089947089998</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.018543956043956006</v>
+        <v>0.037087912087912012</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.010846203828659973</v>
+        <v>0.021692407657319945</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0038265306122448883</v>
+        <v>0.0076530612244897767</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.019510582010581978</v>
+        <v>-0.039021164021163957</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.024662417519560387</v>
+        <v>-0.049324835039120773</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.047119598590186884</v>
+        <v>0.094239197180373768</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0017517517517517123</v>
+        <v>-0.0035035035035034245</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.013975736197958416</v>
+        <v>-0.027951472395916832</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.002536085869419169</v>
+        <v>0.0050721717388383381</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.021135222524111402</v>
+        <v>-0.042270445048222804</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.015131081672435071</v>
+        <v>0.030262163344870141</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.025273393694446311</v>
+        <v>-0.050546787388892622</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>-0.024617085891595725</v>
+        <v>-0.049234171783191449</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.021827819446867069</v>
+        <v>0.043655638893734139</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.018961421739199513</v>
+        <v>-0.037922843478399026</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.031596351991088817</v>
+        <v>-0.063192703982177634</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>0.028792528792528804</v>
+        <v>0.057585057585057609</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.027777777777777846</v>
+        <v>-0.055555555555555691</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.012227595560928922</v>
+        <v>0.024455191121857844</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.044889251997095175</v>
+        <v>-0.089778503994190351</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.097479423868312709</v>
+        <v>0.19495884773662542</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.012962962962962954</v>
+        <v>-0.025925925925925908</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.045581295581295561</v>
+        <v>-0.091162591162591122</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.020309686976353686</v>
+        <v>-0.040619373952707372</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.0074717574717575175</v>
+        <v>0.014943514943515035</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.01042312153423261</v>
+        <v>0.02084624306846522</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.072397428757077914</v>
+        <v>-0.14479485751415583</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0023292357878823833</v>
+        <v>-0.0046584715757647666</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0084984611128402221</v>
+        <v>0.016996922225680444</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.079555395731866291</v>
+        <v>0.15911079146373258</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.024624170655916711</v>
+        <v>0.049248341311833421</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.0079312589233223874</v>
+        <v>-0.015862517846644775</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.039285714285714368</v>
+        <v>0.078571428571428736</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.0044169064636901678</v>
+        <v>-0.0088338129273803356</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.014802500913612071</v>
+        <v>0.029605001827224142</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.012113617376775271</v>
+        <v>-0.024227234753550542</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.018294051627384955</v>
+        <v>0.03658810325476991</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>0.041559993172896326</v>
+        <v>0.083119986345792651</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.0080372889896700161</v>
+        <v>0.016074577979340032</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.011628169522906323</v>
+        <v>0.023256339045812646</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.013439492606159259</v>
+        <v>0.026878985212318518</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.0079404981365765459</v>
+        <v>-0.015880996273153092</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.018416768416768398</v>
+        <v>-0.036833536833536795</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0033402249788804794</v>
+        <v>-0.0066804499577609588</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.031471031471031502</v>
+        <v>0.062942062942063004</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.021926254382394705</v>
+        <v>-0.043852508764789411</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.11121286121286122</v>
+        <v>0.22242572242572245</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.06485408678391133</v>
+        <v>0.12970817356782266</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.021571289334447269</v>
+        <v>0.043142578668894538</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.0077980911314244061</v>
+        <v>0.015596182262848812</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.072757631581160942</v>
+        <v>0.14551526316232188</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.044486699000587882</v>
+        <v>-0.088973398001175763</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.0038292147667147725</v>
+        <v>-0.0076584295334295449</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0068348977017707868</v>
+        <v>-0.013669795403541574</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>-0.0007558578987150455</v>
+        <v>-0.001511715797430091</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0076902299124522178</v>
+        <v>-0.015380459824904436</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0026941624163845934</v>
+        <v>-0.0053883248327691868</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.028704214418500185</v>
+        <v>-0.057408428837000369</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.0041836949731686446</v>
+        <v>0.0083673899463372892</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.0020157520157519648</v>
+        <v>0.0040315040315039297</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.027381705013283936</v>
+        <v>0.054763410026567871</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.065797152194211062</v>
+        <v>0.13159430438842212</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.01158301158301156</v>
+        <v>0.02316602316602312</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>0.026953958971502823</v>
+        <v>0.053907917943005645</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.020790937457604186</v>
+        <v>0.041581874915208372</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.013749651907546678</v>
+        <v>0.027499303815093357</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.026903083920627818</v>
+        <v>0.053806167841255637</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.032931331176945161</v>
+        <v>0.065862662353890322</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.038682771441392094</v>
+        <v>-0.077365542882784188</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>-0.051873301873301914</v>
+        <v>-0.10374660374660383</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.0088031754698421616</v>
+        <v>0.017606350939684323</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.023380523380523349</v>
+        <v>0.046761046761046698</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.025024622643670169</v>
+        <v>0.050049245287340338</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.023418507793507737</v>
+        <v>-0.046837015587015474</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.027526377672576513</v>
+        <v>0.055052755345153026</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.022052664909807812</v>
+        <v>0.044105329819615624</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0012048590479963317</v>
+        <v>0.0024097180959926634</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.048165863567649292</v>
+        <v>0.096331727135298584</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.013402749513860612</v>
+        <v>0.026805499027721225</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.00032204239720576289</v>
+        <v>-0.00064408479441152577</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.011202329184785365</v>
+        <v>0.022404658369570729</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.01759027197623686</v>
+        <v>-0.03518054395247372</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0057087699944842474</v>
+        <v>0.011417539988968495</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.024453024453024413</v>
+        <v>0.048906048906048827</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.00054266720933385248</v>
+        <v>0.001085334418667705</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.048763048763048822</v>
+        <v>0.097526097526097644</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.037693163685227182</v>
+        <v>0.075386327370454365</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.020642762578246487</v>
+        <v>-0.041285525156492975</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.036731175620064505</v>
+        <v>0.073462351240129009</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.041586356764928195</v>
+        <v>0.08317271352985639</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.005450710750249943</v>
+        <v>0.010901421500499886</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.012682850918145</v>
+        <v>-0.02536570183629</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.031015037593984995</v>
+        <v>0.062030075187969991</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.007797174463841039</v>
+        <v>0.015594348927682078</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.019547325102880625</v>
+        <v>-0.03909465020576125</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.0107765328353564</v>
+        <v>0.021553065670712801</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.044901023472452006</v>
+        <v>0.089802046944904013</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>0.017267267267267267</v>
+        <v>0.034534534534534533</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.010782210782210699</v>
+        <v>0.021564421564421399</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.030556449306449296</v>
+        <v>-0.061112898612898592</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.020112374279040973</v>
+        <v>-0.040224748558081946</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.0078435578435578079</v>
+        <v>0.015687115687115616</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.039517195767195812</v>
+        <v>0.079034391534391624</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.01428966560545511</v>
+        <v>0.028579331210910219</v>
       </c>
     </row>
   </sheetData>
